--- a/graph/resultado-processamento-grafos-temp.xlsx
+++ b/graph/resultado-processamento-grafos-temp.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="71">
   <si>
     <t>Grafo</t>
   </si>
@@ -224,6 +224,9 @@
   </si>
   <si>
     <t>processing</t>
+  </si>
+  <si>
+    <t>Tparelelo</t>
   </si>
 </sst>
 </file>
@@ -361,6 +364,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -372,12 +381,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -680,10 +683,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C2:F90"/>
+  <dimension ref="C2:G90"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F52" sqref="F52"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21:C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -692,16 +695,17 @@
     <col min="4" max="4" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="2" spans="3:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C2" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
     </row>
-    <row r="4" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C4" s="3" t="s">
         <v>0</v>
       </c>
@@ -714,9 +718,12 @@
       <c r="F4" s="3" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="5" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C5" s="7" t="s">
+      <c r="G4" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="5" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C5" s="9" t="s">
         <v>5</v>
       </c>
       <c r="D5" s="2">
@@ -725,192 +732,208 @@
       <c r="E5" s="2">
         <v>2</v>
       </c>
-      <c r="F5" s="11" t="s">
+      <c r="F5" s="7" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="6" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C6" s="7"/>
+      <c r="G5" s="7"/>
+    </row>
+    <row r="6" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C6" s="9"/>
       <c r="D6" s="2">
         <v>6</v>
       </c>
       <c r="E6" s="2">
         <v>2</v>
       </c>
-      <c r="F6" s="11" t="s">
+      <c r="F6" s="7" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="7" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C7" s="7"/>
+      <c r="G6" s="7"/>
+    </row>
+    <row r="7" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C7" s="9"/>
       <c r="D7" s="2">
         <v>7</v>
       </c>
       <c r="E7" s="2">
         <v>2</v>
       </c>
-      <c r="F7" s="11" t="s">
+      <c r="F7" s="7" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="8" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C8" s="7"/>
+      <c r="G7" s="7"/>
+    </row>
+    <row r="8" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C8" s="9"/>
       <c r="D8" s="2">
         <v>8</v>
       </c>
       <c r="E8" s="2">
         <v>3</v>
       </c>
-      <c r="F8" s="11" t="s">
+      <c r="F8" s="7" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="9" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C9" s="7"/>
+      <c r="G8" s="7"/>
+    </row>
+    <row r="9" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C9" s="9"/>
       <c r="D9" s="2">
         <v>9</v>
       </c>
       <c r="E9" s="2">
         <v>4</v>
       </c>
-      <c r="F9" s="11" t="s">
+      <c r="F9" s="7" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="10" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C10" s="7"/>
+      <c r="G9" s="7"/>
+    </row>
+    <row r="10" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C10" s="9"/>
       <c r="D10" s="2">
         <v>10</v>
       </c>
       <c r="E10" s="2">
         <v>3</v>
       </c>
-      <c r="F10" s="11" t="s">
+      <c r="F10" s="7" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="11" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C11" s="7"/>
+      <c r="G10" s="7"/>
+    </row>
+    <row r="11" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C11" s="9"/>
       <c r="D11" s="2">
         <v>11</v>
       </c>
       <c r="E11" s="2">
         <v>4</v>
       </c>
-      <c r="F11" s="11" t="s">
+      <c r="F11" s="7" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="12" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C12" s="7"/>
+      <c r="G11" s="7"/>
+    </row>
+    <row r="12" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C12" s="9"/>
       <c r="D12" s="2">
         <v>12</v>
       </c>
       <c r="E12" s="2">
         <v>4</v>
       </c>
-      <c r="F12" s="11" t="s">
+      <c r="F12" s="7" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="13" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C13" s="7"/>
+      <c r="G12" s="7"/>
+    </row>
+    <row r="13" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C13" s="9"/>
       <c r="D13" s="2">
         <v>13</v>
       </c>
       <c r="E13" s="2">
         <v>4</v>
       </c>
-      <c r="F13" s="11" t="s">
+      <c r="F13" s="7" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="14" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C14" s="7"/>
+      <c r="G13" s="7"/>
+    </row>
+    <row r="14" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C14" s="9"/>
       <c r="D14" s="2">
         <v>14</v>
       </c>
       <c r="E14" s="2">
         <v>4</v>
       </c>
-      <c r="F14" s="11" t="s">
+      <c r="F14" s="7" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="15" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C15" s="7"/>
+      <c r="G14" s="7"/>
+    </row>
+    <row r="15" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C15" s="9"/>
       <c r="D15" s="2">
         <v>15</v>
       </c>
       <c r="E15" s="2">
         <v>4</v>
       </c>
-      <c r="F15" s="11" t="s">
+      <c r="F15" s="7" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="16" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C16" s="7"/>
+      <c r="G15" s="7"/>
+    </row>
+    <row r="16" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C16" s="9"/>
       <c r="D16" s="2">
         <v>16</v>
       </c>
       <c r="E16" s="2">
         <v>4</v>
       </c>
-      <c r="F16" s="11" t="s">
+      <c r="F16" s="7" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="17" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C17" s="7"/>
+      <c r="G16" s="7"/>
+    </row>
+    <row r="17" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C17" s="9"/>
       <c r="D17" s="2">
         <v>17</v>
       </c>
       <c r="E17" s="2">
         <v>5</v>
       </c>
-      <c r="F17" s="11" t="s">
+      <c r="F17" s="7" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="18" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C18" s="7"/>
+      <c r="G17" s="7"/>
+    </row>
+    <row r="18" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C18" s="9"/>
       <c r="D18" s="2">
         <v>18</v>
       </c>
       <c r="E18" s="2">
         <v>6</v>
       </c>
-      <c r="F18" s="11" t="s">
+      <c r="F18" s="7" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="19" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C19" s="7"/>
+      <c r="G18" s="7"/>
+    </row>
+    <row r="19" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C19" s="9"/>
       <c r="D19" s="2">
         <v>19</v>
       </c>
       <c r="E19" s="2">
         <v>5</v>
       </c>
-      <c r="F19" s="11" t="s">
+      <c r="F19" s="7" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="20" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C20" s="7"/>
+      <c r="G19" s="7"/>
+    </row>
+    <row r="20" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C20" s="9"/>
       <c r="D20" s="2">
         <v>20</v>
       </c>
       <c r="E20" s="2">
         <v>5</v>
       </c>
-      <c r="F20" s="11" t="s">
+      <c r="F20" s="7" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="21" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C21" s="8" t="s">
+      <c r="G20" s="7"/>
+    </row>
+    <row r="21" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C21" s="10" t="s">
         <v>46</v>
       </c>
       <c r="D21" s="2">
@@ -919,192 +942,208 @@
       <c r="E21" s="2">
         <v>2</v>
       </c>
-      <c r="F21" s="11" t="s">
+      <c r="F21" s="7" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="22" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C22" s="9"/>
+      <c r="G21" s="7"/>
+    </row>
+    <row r="22" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C22" s="11"/>
       <c r="D22" s="2">
         <v>6</v>
       </c>
       <c r="E22" s="2">
         <v>2</v>
       </c>
-      <c r="F22" s="11" t="s">
+      <c r="F22" s="7" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="23" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C23" s="9"/>
+      <c r="G22" s="7"/>
+    </row>
+    <row r="23" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C23" s="11"/>
       <c r="D23" s="2">
         <v>7</v>
       </c>
       <c r="E23" s="2">
         <v>2</v>
       </c>
-      <c r="F23" s="11" t="s">
+      <c r="F23" s="7" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="24" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C24" s="9"/>
+      <c r="G23" s="7"/>
+    </row>
+    <row r="24" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C24" s="11"/>
       <c r="D24" s="2">
         <v>8</v>
       </c>
       <c r="E24" s="2">
         <v>2</v>
       </c>
-      <c r="F24" s="11" t="s">
+      <c r="F24" s="7" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="25" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C25" s="9"/>
+      <c r="G24" s="7"/>
+    </row>
+    <row r="25" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C25" s="11"/>
       <c r="D25" s="2">
         <v>9</v>
       </c>
       <c r="E25" s="2">
         <v>2</v>
       </c>
-      <c r="F25" s="11" t="s">
+      <c r="F25" s="7" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="26" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C26" s="9"/>
+      <c r="G25" s="7"/>
+    </row>
+    <row r="26" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C26" s="11"/>
       <c r="D26" s="2">
         <v>10</v>
       </c>
       <c r="E26" s="2">
         <v>2</v>
       </c>
-      <c r="F26" s="11" t="s">
+      <c r="F26" s="7" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="27" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C27" s="9"/>
+      <c r="G26" s="7"/>
+    </row>
+    <row r="27" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C27" s="11"/>
       <c r="D27" s="2">
         <v>11</v>
       </c>
       <c r="E27" s="2">
         <v>2</v>
       </c>
-      <c r="F27" s="11" t="s">
+      <c r="F27" s="7" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="28" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C28" s="9"/>
+      <c r="G27" s="7"/>
+    </row>
+    <row r="28" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C28" s="11"/>
       <c r="D28" s="2">
         <v>12</v>
       </c>
       <c r="E28" s="2">
         <v>2</v>
       </c>
-      <c r="F28" s="11" t="s">
+      <c r="F28" s="7" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="29" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C29" s="9"/>
+      <c r="G28" s="7"/>
+    </row>
+    <row r="29" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C29" s="11"/>
       <c r="D29" s="2">
         <v>13</v>
       </c>
       <c r="E29" s="2">
         <v>2</v>
       </c>
-      <c r="F29" s="11" t="s">
+      <c r="F29" s="7" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="30" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C30" s="9"/>
+      <c r="G29" s="7"/>
+    </row>
+    <row r="30" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C30" s="11"/>
       <c r="D30" s="2">
         <v>14</v>
       </c>
       <c r="E30" s="2">
         <v>2</v>
       </c>
-      <c r="F30" s="11" t="s">
+      <c r="F30" s="7" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="31" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C31" s="9"/>
+      <c r="G30" s="7"/>
+    </row>
+    <row r="31" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C31" s="11"/>
       <c r="D31" s="2">
         <v>15</v>
       </c>
       <c r="E31" s="2">
         <v>2</v>
       </c>
-      <c r="F31" s="11" t="s">
+      <c r="F31" s="7" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="32" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C32" s="9"/>
+      <c r="G31" s="7"/>
+    </row>
+    <row r="32" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C32" s="11"/>
       <c r="D32" s="2">
         <v>16</v>
       </c>
       <c r="E32" s="2">
         <v>2</v>
       </c>
-      <c r="F32" s="11" t="s">
+      <c r="F32" s="7" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="33" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C33" s="9"/>
+      <c r="G32" s="7"/>
+    </row>
+    <row r="33" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C33" s="11"/>
       <c r="D33" s="2">
         <v>17</v>
       </c>
       <c r="E33" s="2">
         <v>2</v>
       </c>
-      <c r="F33" s="11" t="s">
+      <c r="F33" s="7" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="34" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C34" s="9"/>
+      <c r="G33" s="7"/>
+    </row>
+    <row r="34" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C34" s="11"/>
       <c r="D34" s="2">
         <v>18</v>
       </c>
       <c r="E34" s="2">
         <v>2</v>
       </c>
-      <c r="F34" s="11" t="s">
+      <c r="F34" s="7" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="35" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C35" s="9"/>
+      <c r="G34" s="7"/>
+    </row>
+    <row r="35" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C35" s="11"/>
       <c r="D35" s="2">
         <v>19</v>
       </c>
       <c r="E35" s="2">
         <v>2</v>
       </c>
-      <c r="F35" s="11" t="s">
+      <c r="F35" s="7" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="36" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C36" s="10"/>
+      <c r="G35" s="7"/>
+    </row>
+    <row r="36" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C36" s="12"/>
       <c r="D36" s="2">
         <v>20</v>
       </c>
       <c r="E36" s="2">
         <v>2</v>
       </c>
-      <c r="F36" s="12" t="s">
+      <c r="F36" s="8" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="37" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C37" s="7" t="s">
+      <c r="G36" s="8"/>
+    </row>
+    <row r="37" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C37" s="9" t="s">
         <v>4</v>
       </c>
       <c r="D37" s="2">
@@ -1113,72 +1152,78 @@
       <c r="E37" s="2">
         <v>2</v>
       </c>
-      <c r="F37" s="11">
+      <c r="F37" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C38" s="7"/>
+      <c r="G37" s="7"/>
+    </row>
+    <row r="38" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C38" s="9"/>
       <c r="D38" s="2">
         <v>10</v>
       </c>
       <c r="E38" s="2">
         <v>2</v>
       </c>
-      <c r="F38" s="11">
+      <c r="F38" s="7">
         <v>1E-3</v>
       </c>
-    </row>
-    <row r="39" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C39" s="7"/>
+      <c r="G38" s="7"/>
+    </row>
+    <row r="39" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C39" s="9"/>
       <c r="D39" s="2">
         <v>15</v>
       </c>
       <c r="E39" s="2">
         <v>2</v>
       </c>
-      <c r="F39" s="11">
+      <c r="F39" s="7">
         <v>3.4000000000000002E-2</v>
       </c>
-    </row>
-    <row r="40" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C40" s="7"/>
+      <c r="G39" s="7"/>
+    </row>
+    <row r="40" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C40" s="9"/>
       <c r="D40" s="2">
         <v>20</v>
       </c>
       <c r="E40" s="2">
         <v>2</v>
       </c>
-      <c r="F40" s="11">
+      <c r="F40" s="7">
         <v>0.72</v>
       </c>
-    </row>
-    <row r="41" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C41" s="7"/>
+      <c r="G40" s="7"/>
+    </row>
+    <row r="41" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C41" s="9"/>
       <c r="D41" s="2">
         <v>25</v>
       </c>
       <c r="E41" s="2">
         <v>2</v>
       </c>
-      <c r="F41" s="11">
+      <c r="F41" s="7">
         <v>38</v>
       </c>
-    </row>
-    <row r="42" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C42" s="7"/>
+      <c r="G41" s="7"/>
+    </row>
+    <row r="42" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C42" s="9"/>
       <c r="D42" s="2">
         <v>30</v>
       </c>
       <c r="E42" s="2">
         <v>2</v>
       </c>
-      <c r="F42" s="11" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="43" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C43" s="7" t="s">
+      <c r="F42" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="G42" s="7"/>
+    </row>
+    <row r="43" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C43" s="9" t="s">
         <v>3</v>
       </c>
       <c r="D43" s="2">
@@ -1187,60 +1232,65 @@
       <c r="E43" s="2">
         <v>2</v>
       </c>
-      <c r="F43" s="11">
+      <c r="F43" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C44" s="7"/>
+      <c r="G43" s="7"/>
+    </row>
+    <row r="44" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C44" s="9"/>
       <c r="D44" s="2">
         <v>10</v>
       </c>
       <c r="E44" s="2">
         <v>2</v>
       </c>
-      <c r="F44" s="11">
+      <c r="F44" s="7">
         <v>1E-3</v>
       </c>
-    </row>
-    <row r="45" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C45" s="7"/>
+      <c r="G44" s="7"/>
+    </row>
+    <row r="45" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C45" s="9"/>
       <c r="D45" s="2">
         <v>15</v>
       </c>
       <c r="E45" s="2">
         <v>2</v>
       </c>
-      <c r="F45" s="11">
+      <c r="F45" s="7">
         <v>4.1000000000000002E-2</v>
       </c>
-    </row>
-    <row r="46" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C46" s="7"/>
+      <c r="G45" s="7"/>
+    </row>
+    <row r="46" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C46" s="9"/>
       <c r="D46" s="2">
         <v>20</v>
       </c>
       <c r="E46" s="2">
         <v>2</v>
       </c>
-      <c r="F46" s="11">
+      <c r="F46" s="7">
         <v>1.452</v>
       </c>
-    </row>
-    <row r="47" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C47" s="7"/>
+      <c r="G46" s="7"/>
+    </row>
+    <row r="47" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C47" s="9"/>
       <c r="D47" s="2">
         <v>25</v>
       </c>
       <c r="E47" s="2">
         <v>2</v>
       </c>
-      <c r="F47" s="11">
+      <c r="F47" s="7">
         <v>61.75</v>
       </c>
-    </row>
-    <row r="48" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C48" s="7" t="s">
+      <c r="G47" s="7"/>
+    </row>
+    <row r="48" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C48" s="9" t="s">
         <v>6</v>
       </c>
       <c r="D48" s="2">
@@ -1249,47 +1299,51 @@
       <c r="E48" s="2">
         <v>2</v>
       </c>
-      <c r="F48" s="11">
+      <c r="F48" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C49" s="7"/>
+      <c r="G48" s="7"/>
+    </row>
+    <row r="49" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C49" s="9"/>
       <c r="D49" s="2">
         <v>7</v>
       </c>
       <c r="E49" s="2">
         <v>4</v>
       </c>
-      <c r="F49" s="11">
+      <c r="F49" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C50" s="7"/>
+      <c r="G49" s="7"/>
+    </row>
+    <row r="50" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C50" s="9"/>
       <c r="D50" s="2">
         <v>15</v>
       </c>
       <c r="E50" s="2">
         <v>8</v>
       </c>
-      <c r="F50" s="11">
+      <c r="F50" s="7">
         <v>0.14000000000000001</v>
       </c>
-    </row>
-    <row r="51" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C51" s="7"/>
+      <c r="G50" s="7"/>
+    </row>
+    <row r="51" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C51" s="9"/>
       <c r="D51" s="2">
         <v>31</v>
       </c>
       <c r="E51" s="2">
         <v>16</v>
       </c>
-      <c r="F51" s="11">
+      <c r="F51" s="7">
         <v>1076</v>
       </c>
-    </row>
-    <row r="52" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G51" s="7"/>
+    </row>
+    <row r="52" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C52" s="6" t="s">
         <v>38</v>
       </c>
@@ -1299,9 +1353,10 @@
       <c r="E52" s="2">
         <v>3</v>
       </c>
-      <c r="F52" s="11"/>
-    </row>
-    <row r="53" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="F52" s="7"/>
+      <c r="G52" s="7"/>
+    </row>
+    <row r="53" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C53" s="6" t="s">
         <v>39</v>
       </c>
@@ -1311,9 +1366,10 @@
       <c r="E53" s="2">
         <v>4</v>
       </c>
-      <c r="F53" s="11"/>
-    </row>
-    <row r="54" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="F53" s="7"/>
+      <c r="G53" s="7"/>
+    </row>
+    <row r="54" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C54" s="1" t="s">
         <v>10</v>
       </c>
@@ -1323,9 +1379,10 @@
       <c r="E54" s="2">
         <v>4</v>
       </c>
-      <c r="F54" s="11"/>
-    </row>
-    <row r="55" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="F54" s="7"/>
+      <c r="G54" s="7"/>
+    </row>
+    <row r="55" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C55" s="5" t="s">
         <v>26</v>
       </c>
@@ -1335,9 +1392,10 @@
       <c r="E55" s="2">
         <v>5</v>
       </c>
-      <c r="F55" s="11"/>
-    </row>
-    <row r="56" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="F55" s="7"/>
+      <c r="G55" s="7"/>
+    </row>
+    <row r="56" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C56" s="5" t="s">
         <v>27</v>
       </c>
@@ -1347,9 +1405,10 @@
       <c r="E56" s="2">
         <v>6</v>
       </c>
-      <c r="F56" s="11"/>
-    </row>
-    <row r="57" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="F56" s="7"/>
+      <c r="G56" s="7"/>
+    </row>
+    <row r="57" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C57" s="5" t="s">
         <v>28</v>
       </c>
@@ -1359,9 +1418,10 @@
       <c r="E57" s="2">
         <v>6</v>
       </c>
-      <c r="F57" s="11"/>
-    </row>
-    <row r="58" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="F57" s="7"/>
+      <c r="G57" s="7"/>
+    </row>
+    <row r="58" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C58" s="5" t="s">
         <v>29</v>
       </c>
@@ -1371,9 +1431,10 @@
       <c r="E58" s="2">
         <v>7</v>
       </c>
-      <c r="F58" s="11"/>
-    </row>
-    <row r="59" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="F58" s="7"/>
+      <c r="G58" s="7"/>
+    </row>
+    <row r="59" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C59" s="5" t="s">
         <v>9</v>
       </c>
@@ -1383,9 +1444,10 @@
       <c r="E59" s="2">
         <v>8</v>
       </c>
-      <c r="F59" s="11"/>
-    </row>
-    <row r="60" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="F59" s="7"/>
+      <c r="G59" s="7"/>
+    </row>
+    <row r="60" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C60" s="6" t="s">
         <v>40</v>
       </c>
@@ -1395,9 +1457,10 @@
       <c r="E60" s="2">
         <v>3</v>
       </c>
-      <c r="F60" s="11"/>
-    </row>
-    <row r="61" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="F60" s="7"/>
+      <c r="G60" s="7"/>
+    </row>
+    <row r="61" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C61" s="6" t="s">
         <v>41</v>
       </c>
@@ -1407,9 +1470,10 @@
       <c r="E61" s="2">
         <v>4</v>
       </c>
-      <c r="F61" s="11"/>
-    </row>
-    <row r="62" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="F61" s="7"/>
+      <c r="G61" s="7"/>
+    </row>
+    <row r="62" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C62" s="5" t="s">
         <v>11</v>
       </c>
@@ -1419,9 +1483,10 @@
       <c r="E62" s="2">
         <v>4</v>
       </c>
-      <c r="F62" s="11"/>
-    </row>
-    <row r="63" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="F62" s="7"/>
+      <c r="G62" s="7"/>
+    </row>
+    <row r="63" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C63" s="5" t="s">
         <v>12</v>
       </c>
@@ -1431,9 +1496,10 @@
       <c r="E63" s="2">
         <v>5</v>
       </c>
-      <c r="F63" s="11"/>
-    </row>
-    <row r="64" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="F63" s="7"/>
+      <c r="G63" s="7"/>
+    </row>
+    <row r="64" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C64" s="5" t="s">
         <v>25</v>
       </c>
@@ -1443,9 +1509,10 @@
       <c r="E64" s="2">
         <v>6</v>
       </c>
-      <c r="F64" s="11"/>
-    </row>
-    <row r="65" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="F64" s="7"/>
+      <c r="G64" s="7"/>
+    </row>
+    <row r="65" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C65" s="5" t="s">
         <v>13</v>
       </c>
@@ -1455,9 +1522,10 @@
       <c r="E65" s="2">
         <v>6</v>
       </c>
-      <c r="F65" s="11"/>
-    </row>
-    <row r="66" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="F65" s="7"/>
+      <c r="G65" s="7"/>
+    </row>
+    <row r="66" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C66" s="5" t="s">
         <v>30</v>
       </c>
@@ -1467,9 +1535,10 @@
       <c r="E66" s="2">
         <v>7</v>
       </c>
-      <c r="F66" s="11"/>
-    </row>
-    <row r="67" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="F66" s="7"/>
+      <c r="G66" s="7"/>
+    </row>
+    <row r="67" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C67" s="5" t="s">
         <v>31</v>
       </c>
@@ -1479,9 +1548,10 @@
       <c r="E67" s="2">
         <v>8</v>
       </c>
-      <c r="F67" s="11"/>
-    </row>
-    <row r="68" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="F67" s="7"/>
+      <c r="G67" s="7"/>
+    </row>
+    <row r="68" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C68" s="5" t="s">
         <v>14</v>
       </c>
@@ -1491,9 +1561,10 @@
       <c r="E68" s="2">
         <v>4</v>
       </c>
-      <c r="F68" s="11"/>
-    </row>
-    <row r="69" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="F68" s="7"/>
+      <c r="G68" s="7"/>
+    </row>
+    <row r="69" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C69" s="5" t="s">
         <v>15</v>
       </c>
@@ -1503,9 +1574,10 @@
       <c r="E69" s="2">
         <v>5</v>
       </c>
-      <c r="F69" s="11"/>
-    </row>
-    <row r="70" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="F69" s="7"/>
+      <c r="G69" s="7"/>
+    </row>
+    <row r="70" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C70" s="5" t="s">
         <v>16</v>
       </c>
@@ -1515,9 +1587,10 @@
       <c r="E70" s="2">
         <v>6</v>
       </c>
-      <c r="F70" s="11"/>
-    </row>
-    <row r="71" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="F70" s="7"/>
+      <c r="G70" s="7"/>
+    </row>
+    <row r="71" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C71" s="5" t="s">
         <v>32</v>
       </c>
@@ -1527,9 +1600,10 @@
       <c r="E71" s="2">
         <v>6</v>
       </c>
-      <c r="F71" s="11"/>
-    </row>
-    <row r="72" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="F71" s="7"/>
+      <c r="G71" s="7"/>
+    </row>
+    <row r="72" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C72" s="6" t="s">
         <v>33</v>
       </c>
@@ -1539,9 +1613,10 @@
       <c r="E72" s="2">
         <v>7</v>
       </c>
-      <c r="F72" s="11"/>
-    </row>
-    <row r="73" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="F72" s="7"/>
+      <c r="G72" s="7"/>
+    </row>
+    <row r="73" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C73" s="6" t="s">
         <v>34</v>
       </c>
@@ -1551,9 +1626,10 @@
       <c r="E73" s="2">
         <v>8</v>
       </c>
-      <c r="F73" s="11"/>
-    </row>
-    <row r="74" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="F73" s="7"/>
+      <c r="G73" s="7"/>
+    </row>
+    <row r="74" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C74" s="5" t="s">
         <v>17</v>
       </c>
@@ -1563,9 +1639,10 @@
       <c r="E74" s="2">
         <v>3</v>
       </c>
-      <c r="F74" s="11"/>
-    </row>
-    <row r="75" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="F74" s="7"/>
+      <c r="G74" s="7"/>
+    </row>
+    <row r="75" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C75" s="5" t="s">
         <v>18</v>
       </c>
@@ -1575,9 +1652,10 @@
       <c r="E75" s="2">
         <v>4</v>
       </c>
-      <c r="F75" s="11"/>
-    </row>
-    <row r="76" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="F75" s="7"/>
+      <c r="G75" s="7"/>
+    </row>
+    <row r="76" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C76" s="5" t="s">
         <v>19</v>
       </c>
@@ -1587,9 +1665,10 @@
       <c r="E76" s="2">
         <v>4</v>
       </c>
-      <c r="F76" s="11"/>
-    </row>
-    <row r="77" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="F76" s="7"/>
+      <c r="G76" s="7"/>
+    </row>
+    <row r="77" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C77" s="5" t="s">
         <v>20</v>
       </c>
@@ -1599,9 +1678,10 @@
       <c r="E77" s="2">
         <v>5</v>
       </c>
-      <c r="F77" s="11"/>
-    </row>
-    <row r="78" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="F77" s="7"/>
+      <c r="G77" s="7"/>
+    </row>
+    <row r="78" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C78" s="5" t="s">
         <v>21</v>
       </c>
@@ -1611,33 +1691,36 @@
       <c r="E78" s="2">
         <v>6</v>
       </c>
-      <c r="F78" s="11"/>
-    </row>
-    <row r="79" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="F78" s="7"/>
+      <c r="G78" s="7"/>
+    </row>
+    <row r="79" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C79" s="6" t="s">
         <v>35</v>
       </c>
       <c r="D79" s="2">
         <v>48</v>
       </c>
-      <c r="E79" s="11" t="s">
+      <c r="E79" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="F79" s="11"/>
-    </row>
-    <row r="80" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="F79" s="7"/>
+      <c r="G79" s="7"/>
+    </row>
+    <row r="80" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C80" s="6" t="s">
         <v>36</v>
       </c>
       <c r="D80" s="2">
         <v>54</v>
       </c>
-      <c r="E80" s="11" t="s">
+      <c r="E80" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="F80" s="11"/>
-    </row>
-    <row r="81" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="F80" s="7"/>
+      <c r="G80" s="7"/>
+    </row>
+    <row r="81" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C81" s="5" t="s">
         <v>37</v>
       </c>
@@ -1645,9 +1728,10 @@
         <v>60</v>
       </c>
       <c r="E81" s="2"/>
-      <c r="F81" s="11"/>
-    </row>
-    <row r="82" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="F81" s="7"/>
+      <c r="G81" s="7"/>
+    </row>
+    <row r="82" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C82" s="5" t="s">
         <v>22</v>
       </c>
@@ -1657,9 +1741,10 @@
       <c r="E82" s="2">
         <v>4</v>
       </c>
-      <c r="F82" s="11"/>
-    </row>
-    <row r="83" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="F82" s="7"/>
+      <c r="G82" s="7"/>
+    </row>
+    <row r="83" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C83" s="5" t="s">
         <v>23</v>
       </c>
@@ -1669,9 +1754,10 @@
       <c r="E83" s="2">
         <v>4</v>
       </c>
-      <c r="F83" s="11"/>
-    </row>
-    <row r="84" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="F83" s="7"/>
+      <c r="G83" s="7"/>
+    </row>
+    <row r="84" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C84" s="5" t="s">
         <v>24</v>
       </c>
@@ -1681,67 +1767,74 @@
       <c r="E84" s="2">
         <v>5</v>
       </c>
-      <c r="F84" s="11"/>
-    </row>
-    <row r="85" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="F84" s="7"/>
+      <c r="G84" s="7"/>
+    </row>
+    <row r="85" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C85" s="5" t="s">
         <v>42</v>
       </c>
       <c r="D85" s="2">
         <v>49</v>
       </c>
-      <c r="E85" s="11" t="s">
+      <c r="E85" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="F85" s="11"/>
-    </row>
-    <row r="86" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="F85" s="7"/>
+      <c r="G85" s="7"/>
+    </row>
+    <row r="86" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C86" s="5" t="s">
         <v>43</v>
       </c>
       <c r="D86" s="2">
         <v>56</v>
       </c>
-      <c r="E86" s="11" t="s">
+      <c r="E86" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="F86" s="11"/>
-    </row>
-    <row r="87" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="F86" s="7"/>
+      <c r="G86" s="7"/>
+    </row>
+    <row r="87" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C87" s="5" t="s">
         <v>44</v>
       </c>
       <c r="D87" s="2">
         <v>63</v>
       </c>
-      <c r="E87" s="11" t="s">
+      <c r="E87" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="F87" s="11"/>
-    </row>
-    <row r="88" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="F87" s="7"/>
+      <c r="G87" s="7"/>
+    </row>
+    <row r="88" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C88" s="5" t="s">
         <v>45</v>
       </c>
       <c r="D88" s="2">
         <v>70</v>
       </c>
-      <c r="E88" s="11" t="s">
+      <c r="E88" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="F88" s="11"/>
-    </row>
-    <row r="89" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="F88" s="7"/>
+      <c r="G88" s="7"/>
+    </row>
+    <row r="89" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C89" s="5"/>
       <c r="D89" s="2"/>
       <c r="E89" s="2"/>
-      <c r="F89" s="11"/>
-    </row>
-    <row r="90" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="F89" s="7"/>
+      <c r="G89" s="7"/>
+    </row>
+    <row r="90" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C90" s="5"/>
       <c r="D90" s="2"/>
       <c r="E90" s="2"/>
-      <c r="F90" s="11"/>
+      <c r="F90" s="7"/>
+      <c r="G90" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="5">
